--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -354,12 +354,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
